--- a/Task_02/SampleData.xlsx
+++ b/Task_02/SampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanas\Desktop\Uni Notes\sem 5\E22\Database\Project\Task_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA0562-C703-48FF-99B8-CA785F74BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7252DC1F-5E5D-4D5A-834B-FBEC21AA11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="18264" windowHeight="10128" tabRatio="879" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="department" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="451">
   <si>
     <t>DeptID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>EEE01</t>
   </si>
   <si>
-    <t>Electrical &amp; Electronic Engineering</t>
-  </si>
-  <si>
     <t>course_code</t>
   </si>
   <si>
@@ -1339,14 +1336,59 @@
     <t>pass123ins09</t>
   </si>
   <si>
-    <t>Computer Engineering</t>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Department of Computer Engineering</t>
+  </si>
+  <si>
+    <t>Department of Electrical &amp; Electronic Engineering</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>CIVIL</t>
+  </si>
+  <si>
+    <t>Department of Civil Engineering</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>Department of Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Inter disciplinary Studies </t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>Genral</t>
+  </si>
+  <si>
+    <t>san09</t>
+  </si>
+  <si>
+    <t>Mohamad Sanas</t>
+  </si>
+  <si>
+    <t>Sungavil,Polonnaruwa</t>
+  </si>
+  <si>
+    <t>san099@uni.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,6 +1406,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1401,16 +1451,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1713,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1784,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>436</v>
@@ -1739,10 +1792,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -1752,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,476 +1850,476 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
@@ -2243,21 +2328,21 @@
         <v>710010020</v>
       </c>
       <c r="G21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -2266,677 +2351,703 @@
         <v>710010021</v>
       </c>
       <c r="G22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G26" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>447</v>
+      </c>
+      <c r="B52" t="s">
+        <v>448</v>
+      </c>
+      <c r="C52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" t="s">
         <v>138</v>
       </c>
-      <c r="E51" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" t="s">
-        <v>368</v>
+      <c r="E52" t="s">
+        <v>435</v>
+      </c>
+      <c r="F52">
+        <v>715473845</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G52" r:id="rId1" xr:uid="{331E0C7B-07B4-44FD-B1DF-BF585B67D1AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2951,24 +3062,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2979,10 +3090,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2993,10 +3104,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3020,21 +3131,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -3042,10 +3153,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3053,10 +3164,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -3064,10 +3175,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -3075,10 +3186,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3089,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -3097,10 +3208,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -3108,10 +3219,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -3119,10 +3230,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -3130,10 +3241,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -3154,90 +3265,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3249,758 +3360,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4019,117 +4130,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4147,94 +4258,94 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4252,255 +4363,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4518,114 +4629,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
